--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70BBA23A-2CD5-4D69-B448-9142F17A3413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{616F0777-03A5-4143-86E2-7129DA894327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF750A9-FABF-4040-99C4-A4C4249C95E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7559B9C4-7D25-44AA-ACA9-B16450C646CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="427">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -94,28 +94,28 @@
     <t>37,01%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +124,28 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,55 +166,55 @@
     <t>40,47%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -232,61 +232,61 @@
     <t>42,24%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>34,48%</t>
   </si>
   <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>57,76%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
   </si>
   <si>
     <t>65,52%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -295,61 +295,58 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
   </si>
   <si>
     <t>43,81%</t>
   </si>
   <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>53,16%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -361,55 +358,55 @@
     <t>56,71%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
   </si>
   <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>51,93%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>43,29%</t>
   </si>
   <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>48,07%</t>
   </si>
   <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -424,61 +421,61 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,19%</t>
+    <t>0,18%</t>
   </si>
   <si>
     <t>47,05%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>52,89%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>62,61%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -499,454 +496,454 @@
     <t>32,36%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
   </si>
   <si>
     <t>4,7%</t>
@@ -955,226 +952,229 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>11,53%</t>
+    <t>13,46%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>32,89%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
   </si>
   <si>
     <t>60,91%</t>
   </si>
   <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>62,41%</t>
   </si>
   <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
     <t>53,37%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>45,11%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
   </si>
   <si>
     <t>45,34%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>7,6%</t>
@@ -1183,7 +1183,7 @@
     <t>6,18%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>5,35%</t>
@@ -1192,130 +1192,133 @@
     <t>4,35%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,57%</t>
   </si>
   <si>
     <t>58,68%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>49,95%</t>
   </si>
   <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>53,93%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>42,45%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>40,72%</t>
   </si>
   <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>47,4%</t>
   </si>
   <si>
     <t>43,2%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
   </si>
   <si>
     <t>49,28%</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9606485-29EE-4CAC-B21D-FDF0554971D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D8220-D5EE-4408-B2F9-1822DE522C45}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2607,7 +2610,7 @@
         <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,7 +2666,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2681,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2726,13 +2729,13 @@
         <v>487364</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>307</v>
@@ -2741,13 +2744,13 @@
         <v>325157</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>778</v>
@@ -2756,13 +2759,13 @@
         <v>812520</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2780,13 @@
         <v>372095</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>360</v>
@@ -2792,13 +2795,13 @@
         <v>380012</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>708</v>
@@ -2807,13 +2810,13 @@
         <v>752107</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2884,13 @@
         <v>2010</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2902,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2911,13 +2914,13 @@
         <v>2010</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2935,13 @@
         <v>1485422</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>832</v>
@@ -2947,13 +2950,13 @@
         <v>912595</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>2202</v>
@@ -2962,13 +2965,13 @@
         <v>2398017</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2986,13 @@
         <v>1669605</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>1414</v>
@@ -2998,13 +3001,13 @@
         <v>1528179</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>2984</v>
@@ -3013,13 +3016,13 @@
         <v>3197785</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3078,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3096,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C4F63-B264-4D90-AAF2-6EC74E5A9BB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD071F6-2E6E-4236-9348-F6A4B2A4B5BD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,7 +3116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3226,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3241,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3256,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3274,13 @@
         <v>36418</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3286,13 +3289,13 @@
         <v>11456</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -3301,13 +3304,13 @@
         <v>47874</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3325,13 @@
         <v>76133</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>73</v>
@@ -3337,13 +3340,13 @@
         <v>71925</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M6" s="7">
         <v>148</v>
@@ -3352,13 +3355,13 @@
         <v>148058</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3441,13 +3444,13 @@
         <v>953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3456,13 +3459,13 @@
         <v>953</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3480,13 @@
         <v>151653</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>88</v>
@@ -3492,13 +3495,13 @@
         <v>86668</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>230</v>
@@ -3507,13 +3510,13 @@
         <v>238321</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3531,13 @@
         <v>358067</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -3543,13 +3546,13 @@
         <v>292511</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>639</v>
@@ -3558,13 +3561,13 @@
         <v>650578</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,7 +3656,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3668,7 +3671,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3686,13 @@
         <v>374257</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
@@ -3698,13 +3701,13 @@
         <v>243971</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>567</v>
@@ -3713,13 +3716,13 @@
         <v>618228</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3737,13 @@
         <v>567590</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -3749,13 +3752,13 @@
         <v>496015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1011</v>
@@ -3764,13 +3767,13 @@
         <v>1063606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3841,13 @@
         <v>1132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3868,13 +3871,13 @@
         <v>1132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3892,13 @@
         <v>277201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
@@ -3904,13 +3907,13 @@
         <v>203674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>450</v>
@@ -3919,13 +3922,13 @@
         <v>480876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3943,13 @@
         <v>414664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>319</v>
@@ -3955,13 +3958,13 @@
         <v>336796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>701</v>
@@ -3970,13 +3973,13 @@
         <v>751460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,7 +4035,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4050,7 +4053,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4074,13 +4077,13 @@
         <v>1125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4098,13 @@
         <v>488703</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>313</v>
@@ -4110,13 +4113,13 @@
         <v>339681</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>795</v>
@@ -4125,13 +4128,13 @@
         <v>828384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4149,13 @@
         <v>353891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -4161,13 +4164,13 @@
         <v>366872</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>698</v>
@@ -4176,13 +4179,13 @@
         <v>720762</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4253,13 @@
         <v>2257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4265,13 +4268,13 @@
         <v>953</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -4280,10 +4283,10 @@
         <v>3210</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>84</v>
@@ -4301,13 +4304,13 @@
         <v>1328233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>837</v>
@@ -4316,13 +4319,13 @@
         <v>885451</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
         <v>2089</v>
@@ -4331,13 +4334,13 @@
         <v>2213684</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4355,13 @@
         <v>1770344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>1497</v>
@@ -4367,13 +4370,13 @@
         <v>1564120</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M26" s="7">
         <v>3197</v>
@@ -4382,13 +4385,13 @@
         <v>3334464</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,7 +4447,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C00C8F-4099-4330-9058-E7A210A90A2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFD44C9-EA32-498C-8405-0AB1F8731070}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4482,7 +4485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4589,13 +4592,13 @@
         <v>3547</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4604,13 +4607,13 @@
         <v>6240</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4619,13 +4622,13 @@
         <v>9787</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4643,13 @@
         <v>25464</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -4655,13 +4658,13 @@
         <v>35207</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -4670,13 +4673,13 @@
         <v>60670</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4694,13 @@
         <v>72971</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>170</v>
@@ -4706,13 +4709,13 @@
         <v>89286</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>255</v>
@@ -4721,13 +4724,13 @@
         <v>162258</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,10 +4801,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -4810,13 +4813,13 @@
         <v>46208</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4825,13 +4828,13 @@
         <v>55016</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4849,13 @@
         <v>188586</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H9" s="7">
         <v>312</v>
@@ -4861,13 +4864,13 @@
         <v>196153</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M9" s="7">
         <v>522</v>
@@ -4876,13 +4879,13 @@
         <v>384739</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4900,13 @@
         <v>352429</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H10" s="7">
         <v>646</v>
@@ -4912,13 +4915,13 @@
         <v>377606</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>1039</v>
@@ -4927,13 +4930,13 @@
         <v>730035</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,10 +5004,10 @@
         <v>33084</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>325</v>
@@ -5019,10 +5022,10 @@
         <v>326</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -5031,13 +5034,13 @@
         <v>94653</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5055,13 @@
         <v>505280</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>572</v>
@@ -5067,13 +5070,13 @@
         <v>421505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>994</v>
@@ -5082,13 +5085,13 @@
         <v>926785</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5106,13 @@
         <v>500884</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>858</v>
@@ -5118,13 +5121,13 @@
         <v>577005</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>1369</v>
@@ -5133,13 +5136,13 @@
         <v>1077889</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5210,13 @@
         <v>7468</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -5222,13 +5225,13 @@
         <v>50387</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>86</v>
@@ -5237,10 +5240,10 @@
         <v>57854</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>357</v>
@@ -5401,7 +5404,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5515,7 +5518,7 @@
         <v>373149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>394</v>
@@ -5676,7 +5679,7 @@
         <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>2169</v>
@@ -5685,28 +5688,28 @@
         <v>1657072</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>3776</v>
       </c>
       <c r="N25" s="7">
-        <v>3331858</v>
+        <v>3331857</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5724,13 @@
         <v>1631768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>2866</v>
@@ -5736,28 +5739,28 @@
         <v>1926708</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>4554</v>
       </c>
       <c r="N26" s="7">
-        <v>3558476</v>
+        <v>3558475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,7 +5802,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -5813,7 +5816,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{616F0777-03A5-4143-86E2-7129DA894327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF5DC54-1670-4A7E-993E-6FF189B6A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7559B9C4-7D25-44AA-ACA9-B16450C646CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42980544-CCDC-4146-9ADE-59EC88807BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="428">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No ha trabajado</t>
@@ -94,19 +94,19 @@
     <t>37,01%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>31,0%</t>
@@ -115,7 +115,7 @@
     <t>24,87%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>38,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,25 +124,25 @@
     <t>62,99%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>78,19%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>61,47%</t>
+    <t>61,14%</t>
   </si>
   <si>
     <t>75,13%</t>
@@ -151,7 +151,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -166,1060 +166,1063 @@
     <t>40,47%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>30,43%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2016 (Tasa respuesta: 80,51%)</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>38,65%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
   </si>
   <si>
     <t>35,39%</t>
@@ -1730,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D8220-D5EE-4408-B2F9-1822DE522C45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AD1F2F-D54C-40F2-A49E-EC1FA8C71057}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2610,7 +2613,7 @@
         <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2669,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2684,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2729,13 +2732,13 @@
         <v>487364</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>307</v>
@@ -2744,13 +2747,13 @@
         <v>325157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>778</v>
@@ -2759,13 +2762,13 @@
         <v>812520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,13 +2783,13 @@
         <v>372095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>360</v>
@@ -2795,13 +2798,13 @@
         <v>380012</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>708</v>
@@ -2810,13 +2813,13 @@
         <v>752107</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2887,13 @@
         <v>2010</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2905,7 +2908,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2914,13 +2917,13 @@
         <v>2010</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD071F6-2E6E-4236-9348-F6A4B2A4B5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C655C0E-149A-4555-BEC4-C6FF2423880A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3701,13 +3704,13 @@
         <v>243971</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>567</v>
@@ -3716,13 +3719,13 @@
         <v>618228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3740,13 @@
         <v>567590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -3752,13 +3755,13 @@
         <v>496015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1011</v>
@@ -3767,13 +3770,13 @@
         <v>1063606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3844,13 @@
         <v>1132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3871,13 +3874,13 @@
         <v>1132</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3895,13 @@
         <v>277201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>197</v>
@@ -3907,13 +3910,13 @@
         <v>203674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>450</v>
@@ -3922,13 +3925,13 @@
         <v>480876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3946,13 @@
         <v>414664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H18" s="7">
         <v>319</v>
@@ -3958,13 +3961,13 @@
         <v>336796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M18" s="7">
         <v>701</v>
@@ -3973,13 +3976,13 @@
         <v>751460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4038,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4053,7 +4056,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4077,13 +4080,13 @@
         <v>1125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4101,13 @@
         <v>488703</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H21" s="7">
         <v>313</v>
@@ -4113,13 +4116,13 @@
         <v>339681</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M21" s="7">
         <v>795</v>
@@ -4128,13 +4131,13 @@
         <v>828384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4152,13 @@
         <v>353891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -4164,13 +4167,13 @@
         <v>366872</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
         <v>698</v>
@@ -4179,13 +4182,13 @@
         <v>720762</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4256,13 @@
         <v>2257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4268,7 +4271,7 @@
         <v>953</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -4283,13 +4286,13 @@
         <v>3210</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4307,13 @@
         <v>1328233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>837</v>
@@ -4319,13 +4322,13 @@
         <v>885451</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>2089</v>
@@ -4334,13 +4337,13 @@
         <v>2213684</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4358,13 @@
         <v>1770344</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>1497</v>
@@ -4370,13 +4373,13 @@
         <v>1564120</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>3197</v>
@@ -4385,13 +4388,13 @@
         <v>3334464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,7 +4471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFD44C9-EA32-498C-8405-0AB1F8731070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A988F847-8E54-4DEA-891B-F71EF2FFAEE1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4485,7 +4488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4592,13 +4595,13 @@
         <v>3547</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4607,13 +4610,13 @@
         <v>6240</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4622,13 +4625,13 @@
         <v>9787</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4646,13 @@
         <v>25464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -4658,13 +4661,13 @@
         <v>35207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -4673,13 +4676,13 @@
         <v>60670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4697,13 @@
         <v>72971</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>170</v>
@@ -4709,13 +4712,13 @@
         <v>89286</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>255</v>
@@ -4724,13 +4727,13 @@
         <v>162258</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,10 +4804,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -4813,13 +4816,13 @@
         <v>46208</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -4828,13 +4831,13 @@
         <v>55016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4852,13 @@
         <v>188586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H9" s="7">
         <v>312</v>
@@ -4864,13 +4867,13 @@
         <v>196153</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M9" s="7">
         <v>522</v>
@@ -4879,13 +4882,13 @@
         <v>384739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4903,13 @@
         <v>352429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>646</v>
@@ -4915,13 +4918,13 @@
         <v>377606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>1039</v>
@@ -4930,13 +4933,13 @@
         <v>730035</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5007,13 @@
         <v>33084</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -5019,13 +5022,13 @@
         <v>61569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -5034,13 +5037,13 @@
         <v>94653</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5058,13 @@
         <v>505280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
         <v>572</v>
@@ -5070,13 +5073,13 @@
         <v>421505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>994</v>
@@ -5085,13 +5088,13 @@
         <v>926785</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5109,13 @@
         <v>500884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>858</v>
@@ -5121,13 +5124,13 @@
         <v>577005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>1369</v>
@@ -5136,13 +5139,13 @@
         <v>1077889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5213,13 @@
         <v>7468</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -5225,13 +5228,13 @@
         <v>50387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>86</v>
@@ -5240,13 +5243,13 @@
         <v>57854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5264,13 @@
         <v>388970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -5276,13 +5279,13 @@
         <v>429523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>784</v>
@@ -5291,13 +5294,13 @@
         <v>818492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5315,13 @@
         <v>332335</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>537</v>
@@ -5327,13 +5330,13 @@
         <v>394462</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>853</v>
@@ -5342,13 +5345,13 @@
         <v>726796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,7 +5407,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5416,13 +5419,13 @@
         <v>25768</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -5431,13 +5434,13 @@
         <v>87398</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>142</v>
@@ -5446,13 +5449,13 @@
         <v>113165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5470,13 @@
         <v>566487</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H21" s="7">
         <v>792</v>
@@ -5482,13 +5485,13 @@
         <v>574685</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>390</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1388</v>
@@ -5518,13 +5521,13 @@
         <v>373149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>655</v>
@@ -5533,13 +5536,13 @@
         <v>488350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>1038</v>
@@ -5548,13 +5551,13 @@
         <v>861498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5625,13 @@
         <v>78675</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>332</v>
@@ -5637,13 +5640,13 @@
         <v>251801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M24" s="7">
         <v>413</v>
@@ -5652,13 +5655,13 @@
         <v>330476</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5676,13 @@
         <v>1674786</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>2169</v>
@@ -5688,13 +5691,13 @@
         <v>1657072</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>3776</v>
@@ -5703,13 +5706,13 @@
         <v>3331857</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5727,13 @@
         <v>1631768</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
         <v>2866</v>
@@ -5739,13 +5742,13 @@
         <v>1926708</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>4554</v>
@@ -5754,13 +5757,13 @@
         <v>3558475</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
